--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,9 +17,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段06010000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段02980000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市忠貞段00010003地號</t>
+  </si>
+  <si>
+    <t>30000分之1703</t>
+  </si>
+  <si>
+    <t>10000分之211</t>
+  </si>
+  <si>
+    <t>10000分之173</t>
+  </si>
+  <si>
+    <t>林世嘉</t>
+  </si>
+  <si>
+    <t>蔡篤堅</t>
+  </si>
+  <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
+    <t>92年01月17日</t>
+  </si>
+  <si>
+    <t>102年02月20曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1III：■■!■貝買</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>14000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-07-15</t>
+  </si>
+  <si>
+    <t>tmpf70f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,64 +139,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段二小段 0601-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 0298-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市忠貞段0001 - 0003 地號</t>
-  </si>
-  <si>
-    <t>30000分之 1703</t>
-  </si>
-  <si>
-    <t>10000分之 211</t>
-  </si>
-  <si>
-    <t>10000分之 173</t>
-  </si>
-  <si>
-    <t>林世嘉</t>
-  </si>
-  <si>
-    <t>蔡篤堅</t>
-  </si>
-  <si>
-    <t>93年01月 02日</t>
-  </si>
-  <si>
-    <t>92年01月 17日</t>
-  </si>
-  <si>
-    <t>102 年 02 月20曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1- III '：■■! ■- 貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>14，000，000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段 05345-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段 03854-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段 01678-000 建號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市忠貞段01899 - 000 建號</t>
+    <t>臺北市大安區仁愛段二小段05345000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段03854000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段01678000建號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市忠貞段01899000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -109,10 +160,10 @@
     <t>3分之1</t>
   </si>
   <si>
-    <t>I"r l "T 广 貝買</t>
-  </si>
-  <si>
-    <t>ri 'ft ■■ ■ r-:- 貝買</t>
+    <t>I"rl"T广貝買</t>
+  </si>
+  <si>
+    <t>rift■■■r:貝買</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -124,10 +175,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>福斯 PASSAT 2.0</t>
-  </si>
-  <si>
-    <t>94年01月 28日</t>
+    <t>福斯PASSAT2.0</t>
+  </si>
+  <si>
+    <t>94年01月28日</t>
   </si>
   <si>
     <t>種類</t>
@@ -154,34 +205,34 @@
     <t>私人借款</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行台北復興 分行</t>
+    <t>兆豐國際商業銀行台北復興分行</t>
   </si>
   <si>
     <t>第一商業銀行蘆洲分行</t>
   </si>
   <si>
-    <t>郭素珍 臺北市北投區明德路</t>
-  </si>
-  <si>
-    <t>2，000，000</t>
-  </si>
-  <si>
-    <t>民國97年 07月</t>
-  </si>
-  <si>
-    <t>民國93年 02月</t>
-  </si>
-  <si>
-    <t>民國102年 02月</t>
-  </si>
-  <si>
-    <t>民國98年 04月</t>
-  </si>
-  <si>
-    <t>民國92年 01月</t>
-  </si>
-  <si>
-    <t>民國92年 02月</t>
+    <t>郭素珍臺北市北投區明德路</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>民國97年07月</t>
+  </si>
+  <si>
+    <t>民國93年02月</t>
+  </si>
+  <si>
+    <t>民國102年02月</t>
+  </si>
+  <si>
+    <t>民國98年04月</t>
+  </si>
+  <si>
+    <t>民國92年01月</t>
+  </si>
+  <si>
+    <t>民國92年02月</t>
   </si>
   <si>
     <t>購屋</t>
@@ -546,13 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,83 +625,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1069</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4549.41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -668,25 +803,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -694,25 +829,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>83.23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -720,25 +855,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>337.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -746,25 +881,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>26.56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -772,25 +907,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>211.47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -808,22 +943,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -831,22 +966,22 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -864,22 +999,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -887,22 +1022,22 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -910,22 +1045,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>6675465</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -933,22 +1068,22 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>10500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -956,22 +1091,22 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
         <v>2161265</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -979,22 +1114,22 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <v>563630</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1002,22 +1137,22 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2">
         <v>543011</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1025,22 +1160,22 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>714257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1048,22 +1183,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段二小段06010000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中山區長安段四小段02980000地號</t>
@@ -70,78 +73,57 @@
     <t>桃園縣平鎮市忠貞段00010003地號</t>
   </si>
   <si>
-    <t>30000分之1703</t>
-  </si>
-  <si>
     <t>10000分之211</t>
   </si>
   <si>
     <t>10000分之173</t>
   </si>
   <si>
+    <t>蔡篤堅</t>
+  </si>
+  <si>
+    <t>92年01月17日</t>
+  </si>
+  <si>
+    <t>102年02月20曰</t>
+  </si>
+  <si>
+    <t>1III：■■!■貝買</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>14000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-07-15</t>
+  </si>
+  <si>
     <t>林世嘉</t>
   </si>
   <si>
-    <t>蔡篤堅</t>
+    <t>tmpf70f1</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段二小段05345000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>93年01月02日</t>
   </si>
   <si>
-    <t>92年01月17日</t>
-  </si>
-  <si>
-    <t>102年02月20曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1III：■■!■貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>14000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-07-15</t>
-  </si>
-  <si>
-    <t>tmpf70f1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段05345000建號</t>
-  </si>
-  <si>
     <t>臺北市大安區仁愛段二小段03854000建號</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t>桃園縣平鎮市忠貞段01899000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>12分之1</t>
   </si>
   <si>
@@ -166,48 +145,27 @@
     <t>rift■■■r:貝買</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>福斯PASSAT2.0</t>
   </si>
   <si>
     <t>94年01月28日</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>兆豐國際商業銀行台北復興分行</t>
+  </si>
+  <si>
+    <t>民國97年07月</t>
+  </si>
+  <si>
+    <t>購屋</t>
+  </si>
+  <si>
     <t>私人借款</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行台北復興分行</t>
-  </si>
-  <si>
     <t>第一商業銀行蘆洲分行</t>
   </si>
   <si>
@@ -217,9 +175,6 @@
     <t>2000000</t>
   </si>
   <si>
-    <t>民國97年07月</t>
-  </si>
-  <si>
     <t>民國93年02月</t>
   </si>
   <si>
@@ -233,9 +188,6 @@
   </si>
   <si>
     <t>民國92年02月</t>
-  </si>
-  <si>
-    <t>購屋</t>
   </si>
   <si>
     <t>私人借貸</t>
@@ -597,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,146 +598,117 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>509</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0211</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22.5559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1069</v>
+        <v>4549.41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4549.41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1740</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2">
-        <v>17</v>
+      <c r="P3" s="2">
+        <v>0.0173</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>78.704793</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,129 +726,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>83.23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>337.9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2">
-        <v>83.23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>337.9</v>
+        <v>26.56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>26.56</v>
+        <v>211.47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>211.47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +832,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -943,262 +873,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5566788</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6675465</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2">
-        <v>1984</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5566788</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>6675465</v>
+        <v>10500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
-        <v>10500000</v>
+        <v>2161265</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
-        <v>2161265</v>
+        <v>563630</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
-        <v>563630</v>
+        <v>543011</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
-        <v>543011</v>
+        <v>714257</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2">
-        <v>714257</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>96</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -67,33 +67,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段二小段06010000地號</t>
+  </si>
+  <si>
     <t>臺北市中山區長安段四小段02980000地號</t>
   </si>
   <si>
     <t>桃園縣平鎮市忠貞段00010003地號</t>
   </si>
   <si>
+    <t>30000分之1703</t>
+  </si>
+  <si>
     <t>10000分之211</t>
   </si>
   <si>
     <t>10000分之173</t>
   </si>
   <si>
+    <t>林世嘉</t>
+  </si>
+  <si>
     <t>蔡篤堅</t>
   </si>
   <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
     <t>92年01月17日</t>
   </si>
   <si>
     <t>102年02月20曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>1III：■■!■貝買</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -109,28 +121,22 @@
     <t>2013-07-15</t>
   </si>
   <si>
-    <t>林世嘉</t>
-  </si>
-  <si>
     <t>tmpf70f1</t>
   </si>
   <si>
     <t>臺北市大安區仁愛段二小段05345000建號</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段二小段03854000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區長安段四小段01678000建號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市忠貞段01899000建號</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>93年01月02日</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段二小段03854000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區長安段四小段01678000建號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市忠貞段01899000建號</t>
   </si>
   <si>
     <t>12分之1</t>
@@ -549,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,107 +613,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1069</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0211</v>
+        <v>0.0567666666666667</v>
       </c>
       <c r="Q2" s="2">
-        <v>22.5559</v>
+        <v>28.8942333333333</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4549.41</v>
+        <v>1069</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0211</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>22.5559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4549.41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2">
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.0173</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>78.704793</v>
       </c>
     </row>
@@ -718,111 +777,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1">
-        <v>83.23</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>337.9</v>
+        <v>83.23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>83.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>26.56</v>
+        <v>337.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>28.1583333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
+        <v>26.56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.85333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
         <v>211.47</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>211.47</v>
       </c>
     </row>
   </sheetData>
@@ -832,40 +1052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1984</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,181 +1062,260 @@
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C1" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>5566788</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
-        <v>6675465</v>
+        <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6675465</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10500000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2161265</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2161265</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="2">
-        <v>563630</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2">
+        <v>563630</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="2">
-        <v>543011</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2">
+        <v>543011</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="2">
-        <v>714257</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
+        <v>714257</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>rift■■■r:貝買</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>福斯PASSAT2.0</t>
@@ -1052,38 +1055,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
-        <v>1984</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -1092,13 +1116,34 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1161,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>5566788</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1139,22 +1184,22 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1162,22 +1207,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>6675465</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1185,22 +1230,22 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>10500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1208,22 +1253,22 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2">
         <v>2161265</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1231,22 +1276,22 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>563630</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1254,22 +1299,22 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>543011</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1277,22 +1322,22 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
         <v>714257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1300,22 +1345,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +151,9 @@
     <t>rift■■■r:貝買</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t>94年01月28日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -862,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -915,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -968,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1021,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1107,7 +1113,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -1116,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1125,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1161,22 +1167,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>5566788</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1184,22 +1190,22 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1207,22 +1213,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>6675465</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1230,22 +1236,22 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>10500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1253,22 +1259,22 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>2161265</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1276,22 +1282,22 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2">
         <v>563630</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1299,22 +1305,22 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2">
         <v>543011</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1322,22 +1328,22 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2">
         <v>714257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1345,22 +1351,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -103,7 +103,7 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>1III：■■!■貝買</t>
+    <t>1III：!貝買</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -148,7 +148,7 @@
     <t>I"rl"T广貝買</t>
   </si>
   <si>
-    <t>rift■■■r:貝買</t>
+    <t>riftr:貝買</t>
   </si>
   <si>
     <t>building</t>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -166,46 +166,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>私人借款</t>
+  </si>
+  <si>
     <t>兆豐國際商業銀行台北復興分行</t>
   </si>
   <si>
+    <t>第一商業銀行蘆洲分行</t>
+  </si>
+  <si>
+    <t>郭素珍臺北市北投區明德路</t>
+  </si>
+  <si>
     <t>民國97年07月</t>
   </si>
   <si>
+    <t>民國93年02月</t>
+  </si>
+  <si>
+    <t>民國102年02月</t>
+  </si>
+  <si>
+    <t>民國98年04月</t>
+  </si>
+  <si>
+    <t>民國92年01月</t>
+  </si>
+  <si>
+    <t>民國92年02月</t>
+  </si>
+  <si>
     <t>購屋</t>
   </si>
   <si>
-    <t>私人借款</t>
-  </si>
-  <si>
-    <t>第一商業銀行蘆洲分行</t>
-  </si>
-  <si>
-    <t>郭素珍臺北市北投區明德路</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>民國93年02月</t>
-  </si>
-  <si>
-    <t>民國102年02月</t>
-  </si>
-  <si>
-    <t>民國98年04月</t>
-  </si>
-  <si>
-    <t>民國92年01月</t>
-  </si>
-  <si>
-    <t>民國92年02月</t>
-  </si>
-  <si>
     <t>私人借貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1159,67 +1165,109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5566788</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>6675465</v>
@@ -1228,15 +1276,36 @@
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1251,15 +1320,36 @@
         <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1274,15 +1364,36 @@
         <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1297,15 +1408,36 @@
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1320,15 +1452,36 @@
         <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1343,15 +1496,36 @@
         <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1359,14 +1533,35 @@
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
+      <c r="E9" s="2">
+        <v>2000000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
+++ b/legislator/property/output/normal/林世嘉_2013-07-15_財產申報表_tmpf70f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -103,9 +103,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>1III：!貝買</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
     <t>3分之1</t>
   </si>
   <si>
-    <t>I"rl"T广貝買</t>
-  </si>
-  <si>
-    <t>riftr:貝買</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
@@ -160,7 +151,13 @@
     <t>福斯PASSAT2.0</t>
   </si>
   <si>
+    <t>福斯PASSAT2.0TDI</t>
+  </si>
+  <si>
     <t>94年01月28日</t>
+  </si>
+  <si>
+    <t>民國102年6月</t>
   </si>
   <si>
     <t>car</t>
@@ -649,16 +646,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
@@ -667,7 +664,7 @@
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
         <v>15</v>
@@ -699,19 +696,19 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>22</v>
@@ -720,7 +717,7 @@
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
         <v>16</v>
@@ -755,16 +752,16 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
@@ -773,7 +770,7 @@
         <v>1740</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
         <v>17</v>
@@ -853,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>83.23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -871,16 +868,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
@@ -889,7 +886,7 @@
         <v>1740</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
         <v>22</v>
@@ -906,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>337.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -921,19 +918,19 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>22</v>
@@ -942,7 +939,7 @@
         <v>1740</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
         <v>23</v>
@@ -959,13 +956,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>26.56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -977,16 +974,16 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
@@ -995,7 +992,7 @@
         <v>1740</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
         <v>24</v>
@@ -1012,13 +1009,13 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>211.47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1027,19 +1024,19 @@
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>22</v>
@@ -1048,7 +1045,7 @@
         <v>1740</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2">
         <v>25</v>
@@ -1067,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1119,7 +1116,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -1128,22 +1125,22 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1152,10 +1149,54 @@
         <v>1740</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1740</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1214,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1214,34 +1255,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>5566788</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1250,42 +1291,42 @@
         <v>1740</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>6675465</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
@@ -1294,42 +1335,42 @@
         <v>1740</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>10500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
@@ -1338,42 +1379,42 @@
         <v>1740</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>2161265</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
@@ -1382,42 +1423,42 @@
         <v>1740</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>563630</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>22</v>
@@ -1426,42 +1467,42 @@
         <v>1740</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>543011</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>22</v>
@@ -1470,42 +1511,42 @@
         <v>1740</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
         <v>714257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>22</v>
@@ -1514,42 +1555,42 @@
         <v>1740</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>2000000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
@@ -1558,10 +1599,10 @@
         <v>1740</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
